--- a/Laboratory/Lab_9_Parabolic_shot/Data.xlsx
+++ b/Laboratory/Lab_9_Parabolic_shot/Data.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\JupyterCods\Laboratory\Lab_9_Parabolic_shot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\JuanGuarin\Escritorio\UNIVERSIDAD\3 TERCER SEMESTRE\LAB FÍSICA I\9 TIRO PARABOLICO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2156BBA-1B2C-463C-BB17-D57882E13E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715D7BB-98CE-446C-A594-CF4707700069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FAD0719B-E3AC-4506-B1FD-B84E24A2C03A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FAD0719B-E3AC-4506-B1FD-B84E24A2C03A}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte A" sheetId="1" r:id="rId1"/>
     <sheet name="Parte B" sheetId="2" r:id="rId2"/>
-    <sheet name="Tablas" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>y1</t>
   </si>
@@ -153,12 +152,6 @@
   </si>
   <si>
     <t>Incertidumbre %Error</t>
-  </si>
-  <si>
-    <t>Caso</t>
-  </si>
-  <si>
-    <t>δx^2 [m^2]</t>
   </si>
 </sst>
 </file>
@@ -220,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -304,24 +297,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -346,25 +326,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,13 +368,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,293 +816,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>271463</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="116186" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CuadroTexto 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF343F1-2467-446E-ABAB-644656FDA025}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1852613" y="100013"/>
-              <a:ext cx="116186" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̅"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="es-CO" sz="1100" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝒚</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="CuadroTexto 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF343F1-2467-446E-ABAB-644656FDA025}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1852613" y="100013"/>
-              <a:ext cx="116186" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝒚 ̅</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>271463</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="116186" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="CuadroTexto 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DDE432-6D38-4230-B16F-D5034D8EF4F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1852613" y="100013"/>
-              <a:ext cx="116186" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̅"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="es-CO" sz="1100" b="1" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝒚</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="CuadroTexto 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DDE432-6D38-4230-B16F-D5034D8EF4F7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1852613" y="100013"/>
-              <a:ext cx="116186" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100" b="1" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝒚 ̅</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-CO" sz="1100" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1429,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAFCEC1-B0E3-420B-8039-D194F74139D8}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="Q1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,73 +1136,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="22" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1532,24 +1218,24 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -1581,7 +1267,7 @@
         <f>SQRT(2*(G3-M3)/9.8)</f>
         <v>5.5328333517248834E-2</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="21">
         <f>2*L3/SQRT(2*9.8*(G3-M3))</f>
         <v>3.6885555678165859E-3</v>
       </c>
@@ -1620,22 +1306,22 @@
         <v>10.396069928229656</v>
       </c>
       <c r="T3" s="15">
-        <v>2.9732485863416001</v>
+        <v>3.1730558169274001</v>
       </c>
       <c r="U3" s="15">
         <v>3.5136650381490303E-2</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="20">
         <f>U3/T3*100</f>
-        <v>1.1817595926186513</v>
+        <v>1.1073442261571862</v>
       </c>
       <c r="W3" s="16">
         <f>(Q3-T3)/T3*100</f>
-        <v>22.672681940122661</v>
+        <v>14.947986800431265</v>
       </c>
       <c r="X3" s="16">
         <f>R3/T3+Q3/(T3*T3)*U3</f>
-        <v>0.14202833983679869</v>
+        <v>0.13222942983783528</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -1668,7 +1354,7 @@
         <f t="shared" ref="I4:I7" si="1">SQRT(2*(G4-M4)/9.8)</f>
         <v>9.1249825272407437E-2</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="21">
         <f t="shared" ref="J4:J7" si="2">2*L4/SQRT(2*9.8*(G4-M4))</f>
         <v>2.2365153253041067E-3</v>
       </c>
@@ -1728,7 +1414,7 @@
         <f t="shared" si="1"/>
         <v>0.12388276222102169</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="21">
         <f>2*N5/SQRT(2*9.8*(G5-M5))</f>
         <v>1.9211553912535184E-3</v>
       </c>
@@ -1788,7 +1474,7 @@
         <f t="shared" si="1"/>
         <v>0.16263142252294524</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="21">
         <f>2*N6/SQRT(2*9.8*(G6-M6))</f>
         <v>1.2797234521108735E-3</v>
       </c>
@@ -1848,7 +1534,7 @@
         <f t="shared" si="1"/>
         <v>0.19388614374084051</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="21">
         <f t="shared" si="2"/>
         <v>1.0525849280175925E-3</v>
       </c>
@@ -1883,6 +1569,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="T1:T2"/>
@@ -1893,16 +1589,6 @@
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1914,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E42E5EF-6183-4C0A-819B-FD02EDCF1E0D}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1937,59 +1623,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>25</v>
       </c>
       <c r="M1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
@@ -2007,16 +1693,16 @@
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="31"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="27"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="26"/>
       <c r="M2" s="33"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="27"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -2051,13 +1737,13 @@
       <c r="J3" s="5">
         <v>0.51700000000000002</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>1E-3</v>
       </c>
       <c r="L3" s="15">
-        <v>2.9732485863416001</v>
-      </c>
-      <c r="M3" s="18">
+        <v>3.1730558169274001</v>
+      </c>
+      <c r="M3" s="15">
         <v>3.5136650381490303E-2</v>
       </c>
       <c r="N3" s="4">
@@ -2066,23 +1752,23 @@
       </c>
       <c r="O3" s="4">
         <f xml:space="preserve"> ABS(SIN(RADIANS(A3))/9.8*(1+$L$3*SIN(RADIANS(A3))/SQRT(2*9.8*J3+$L$3^2*SIN(RADIANS(A3))^2 )))*$M$3 + ABS($L$3*COS(RADIANS(A3))/9.8*(1+$L$3*SIN(RADIANS(A3))/SQRT(2*9.8*J3+$L$3^2*SIN(RADIANS(A3))^2    )))*RADIANS(B3)+K3/SQRT(2*9.8*J3+$L$3^2*SIN(RADIANS(A3))^2 )</f>
-        <v>5.6093442644757777E-3</v>
+        <v>5.9651905953955458E-3</v>
       </c>
       <c r="P3" s="10">
         <f>$L$3*COS(RADIANS(A3))*N3</f>
-        <v>0.96578054503738375</v>
+        <v>1.0306825976084411</v>
       </c>
       <c r="Q3" s="10">
         <f>COS(RADIANS(A3))*N3*$M$3 +    $L$3*COS(RADIANS(A3))*O3 + RADIANS(B3)*N3*$L$3*SIN(RADIANS(A3))</f>
-        <v>2.8091179139279946E-2</v>
+        <v>3.0341086952424434E-2</v>
       </c>
       <c r="R3" s="10">
         <f>ABS(H3-P3)/P3*100</f>
-        <v>6.9290539456896862</v>
-      </c>
-      <c r="S3" s="21">
+        <v>0.19573459338888674</v>
+      </c>
+      <c r="S3" s="20">
         <f>I3/P3+H3/(P3*P3)*Q3</f>
-        <v>3.4023235879619196E-2</v>
+        <v>3.2232835044096381E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2119,33 +1805,33 @@
         <f>$J$3+SIN(RADIANS(A4))*0.18</f>
         <v>0.56358742811845375</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <f>$K$3+18*COS(RADIANS(A4))*RADIANS(B4)</f>
         <v>0.30445454797823879</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" ref="N4:N7" si="2">1/9.8*($L$3*SIN(RADIANS(A4))+SQRT($L$3^2*SIN(RADIANS(A4))^2+2*J4*9.8))</f>
-        <v>0.42663849386570712</v>
+        <f>1/9.8*($L$3*SIN(RADIANS(A4))+SQRT($L$3^2*SIN(RADIANS(A4))^2+2*J4*9.8))</f>
+        <v>0.43314356398775794</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" ref="O4:O7" si="3" xml:space="preserve"> ABS(SIN(RADIANS(A4))/9.8*(1+$L$3*SIN(RADIANS(A4))/SQRT(2*9.8*J4+$L$3^2*SIN(RADIANS(A4))^2 )))*$M$3 + ABS($L$3*COS(RADIANS(A4))/9.8*(1+$L$3*SIN(RADIANS(A4))/SQRT(2*9.8*J4+$L$3^2*SIN(RADIANS(A4))^2    )))*RADIANS(B4)+K4/SQRT(2*9.8*J4+$L$3^2*SIN(RADIANS(A4))^2 )</f>
-        <v>9.6648764532973705E-2</v>
+        <f t="shared" ref="O4:O7" si="2" xml:space="preserve"> ABS(SIN(RADIANS(A4))/9.8*(1+$L$3*SIN(RADIANS(A4))/SQRT(2*9.8*J4+$L$3^2*SIN(RADIANS(A4))^2 )))*$M$3 + ABS($L$3*COS(RADIANS(A4))/9.8*(1+$L$3*SIN(RADIANS(A4))/SQRT(2*9.8*J4+$L$3^2*SIN(RADIANS(A4))^2    )))*RADIANS(B4)+K4/SQRT(2*9.8*J4+$L$3^2*SIN(RADIANS(A4))^2 )</f>
+        <v>9.6847683241769802E-2</v>
       </c>
       <c r="P4" s="10">
-        <f t="shared" ref="P4:P7" si="4">$L$3*COS(RADIANS(A4))*N4</f>
-        <v>1.2252791310842843</v>
+        <f>$L$3*COS(RADIANS(A4))*N4</f>
+        <v>1.3275575457861033</v>
       </c>
       <c r="Q4" s="10">
-        <f t="shared" ref="Q4:Q7" si="5">COS(RADIANS(A4))*N4*$M$3 +    $L$3*COS(RADIANS(A4))*O4 + RADIANS(B4)*N4*$L$3*SIN(RADIANS(A4))</f>
-        <v>0.29777920932180274</v>
+        <f t="shared" ref="Q4:Q7" si="3">COS(RADIANS(A4))*N4*$M$3 +    $L$3*COS(RADIANS(A4))*O4 + RADIANS(B4)*N4*$L$3*SIN(RADIANS(A4))</f>
+        <v>0.31774108695324987</v>
       </c>
       <c r="R4" s="8">
-        <f t="shared" ref="R4:R7" si="6">ABS(H4-P4)/P4*100</f>
-        <v>6.2941469383771542</v>
+        <f t="shared" ref="R4:R7" si="4">ABS(H4-P4)/P4*100</f>
+        <v>1.8950248797845102</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" ref="S4:S7" si="7">I4/P4+H4/(P4*P4)*Q4</f>
-        <v>0.26118166328530112</v>
+        <f t="shared" ref="S4:S7" si="5">I4/P4+H4/(P4*P4)*Q4</f>
+        <v>0.23744235151210791</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2179,36 +1865,36 @@
         <v>5.8309518948452526E-3</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" ref="J5:J7" si="8">$J$3+SIN(RADIANS(A5))*0.18</f>
+        <f t="shared" ref="J5:J7" si="6">$J$3+SIN(RADIANS(A5))*0.18</f>
         <v>0.60699999999999998</v>
       </c>
-      <c r="K5" s="20">
-        <f t="shared" ref="K5:K6" si="9">$K$3+18*COS(RADIANS(A5))*RADIANS(B5)</f>
+      <c r="K5" s="19">
+        <f t="shared" ref="K5:K6" si="7">$K$3+18*COS(RADIANS(A5))*RADIANS(B5)</f>
         <v>0.2730699046351327</v>
       </c>
       <c r="N5" s="10">
+        <f t="shared" ref="N5:N7" si="8">1/9.8*($L$3*SIN(RADIANS(A5))+SQRT($L$3^2*SIN(RADIANS(A5))^2+2*J5*9.8))</f>
+        <v>0.54930009985720218</v>
+      </c>
+      <c r="O5" s="10">
         <f t="shared" si="2"/>
-        <v>0.53495780191032016</v>
-      </c>
-      <c r="O5" s="10">
+        <v>8.1405455603494076E-2</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" ref="P5:P7" si="9">$L$3*COS(RADIANS(A5))*N5</f>
+        <v>1.5094475313375468</v>
+      </c>
+      <c r="Q5" s="10">
         <f t="shared" si="3"/>
-        <v>8.1606136574492907E-2</v>
-      </c>
-      <c r="P5" s="10">
+        <v>0.25562284741671609</v>
+      </c>
+      <c r="R5" s="8">
         <f t="shared" si="4"/>
-        <v>1.3774675558000498</v>
-      </c>
-      <c r="Q5" s="10">
+        <v>4.2033611649505422</v>
+      </c>
+      <c r="S5" s="16">
         <f t="shared" si="5"/>
-        <v>0.24028699132937262</v>
-      </c>
-      <c r="R5" s="8">
-        <f t="shared" si="6"/>
-        <v>4.9752492471697822</v>
-      </c>
-      <c r="S5" s="16">
-        <f t="shared" si="7"/>
-        <v>0.18735310233966823</v>
+        <v>0.1660932510799821</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2242,36 +1928,36 @@
         <v>3.6035538014576589E-2</v>
       </c>
       <c r="J6" s="10">
+        <f t="shared" si="6"/>
+        <v>0.64427922061357856</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="7"/>
+        <v>0.22314414690791834</v>
+      </c>
+      <c r="N6" s="10">
         <f t="shared" si="8"/>
-        <v>0.64427922061357856</v>
-      </c>
-      <c r="K6" s="20">
-        <f t="shared" si="9"/>
-        <v>0.22314414690791834</v>
-      </c>
-      <c r="N6" s="10">
-        <f t="shared" si="2"/>
-        <v>0.63584936177375695</v>
+        <v>0.65778665530346703</v>
       </c>
       <c r="O6" s="10">
         <f xml:space="preserve"> ABS(SIN(RADIANS(A6))/9.8*(1+$L$3*SIN(RADIANS(A6))/SQRT(2*9.8*J6+$L$3^2*SIN(RADIANS(A6))^2 )))*$M$3 + ABS($L$3*COS(RADIANS(A6))/9.8*(1+$L$3*SIN(RADIANS(A6))/SQRT(2*9.8*J6+$L$3^2*SIN(RADIANS(A6))^2    )))*RADIANS(B6)+K6/SQRT(2*9.8*J6+$L$3^2*SIN(RADIANS(A6))^2 )</f>
-        <v>6.3521178562354425E-2</v>
+        <v>6.311440737938534E-2</v>
       </c>
       <c r="P6" s="10">
+        <f t="shared" si="9"/>
+        <v>1.4758688704735003</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="3"/>
+        <v>0.18371083942123581</v>
+      </c>
+      <c r="R6" s="8">
         <f t="shared" si="4"/>
-        <v>1.3368123926400826</v>
-      </c>
-      <c r="Q6" s="10">
+        <v>6.1434231920896361</v>
+      </c>
+      <c r="S6" s="16">
         <f t="shared" si="5"/>
-        <v>0.17267688140238285</v>
-      </c>
-      <c r="R6" s="8">
-        <f t="shared" si="6"/>
-        <v>3.6196258821595988</v>
-      </c>
-      <c r="S6" s="16">
-        <f t="shared" si="7"/>
-        <v>0.16080242649768861</v>
+        <v>0.14124577548244224</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2305,45 +1991,40 @@
         <v>7.0597450378891632E-3</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.67288457268119894</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <f>$K$3+18*COS(RADIANS(A7))*RADIANS(B7)</f>
         <v>0.15807963267948968</v>
       </c>
       <c r="N7" s="10">
+        <f t="shared" si="8"/>
+        <v>0.74510597103470422</v>
+      </c>
+      <c r="O7" s="10">
         <f t="shared" si="2"/>
-        <v>0.71701304826619128</v>
-      </c>
-      <c r="O7" s="10">
+        <v>4.4220612893515115E-2</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="9"/>
+        <v>1.1821314178095039</v>
+      </c>
+      <c r="Q7" s="10">
         <f t="shared" si="3"/>
-        <v>4.4588910051626907E-2</v>
-      </c>
-      <c r="P7" s="10">
+        <v>0.11898332072003796</v>
+      </c>
+      <c r="R7" s="8">
         <f t="shared" si="4"/>
-        <v>1.0659290160729675</v>
-      </c>
-      <c r="Q7" s="10">
+        <v>8.5211691603764219</v>
+      </c>
+      <c r="S7" s="16">
         <f t="shared" si="5"/>
-        <v>0.11110669814790336</v>
-      </c>
-      <c r="R7" s="8">
-        <f t="shared" si="6"/>
-        <v>1.4514084609526505</v>
-      </c>
-      <c r="S7" s="16">
-        <f t="shared" si="7"/>
-        <v>0.1123705738349062</v>
+        <v>9.8046878697726172E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="O1:O2"/>
@@ -2354,408 +2035,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3B8E19-EE41-41BC-B605-A4705E1D0B0E}">
-  <dimension ref="A1:R15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="C11:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="D3" s="38">
-        <v>0.502</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.502</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5.5328333517248834E-2</v>
-      </c>
-      <c r="I3" s="8">
-        <v>4.3377413477523055</v>
-      </c>
-      <c r="K3" s="9">
-        <v>3.6473637816120243</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.37918248927330761</v>
-      </c>
-      <c r="M3" s="8">
-        <v>10.396069928229656</v>
-      </c>
-      <c r="N3" s="15">
-        <v>2.9732485863416001</v>
-      </c>
-      <c r="O3" s="15">
-        <v>3.5136650381490303E-2</v>
-      </c>
-      <c r="P3" s="16">
-        <v>1.1817595926186513</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>22.672681940122661</v>
-      </c>
-      <c r="R3" s="16">
-        <v>0.14202833983679869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.11560000000000002</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.47620000000000007</v>
-      </c>
-      <c r="F4" s="12">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.47620000000000007</v>
-      </c>
-      <c r="H4" s="5">
-        <v>9.1249825272407437E-2</v>
-      </c>
-      <c r="I4" s="8">
-        <v>3.7260345319566421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.19359999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.44180000000000003</v>
-      </c>
-      <c r="F5" s="12">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.44180000000000003</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.12388276222102169</v>
-      </c>
-      <c r="I5" s="10">
-        <v>3.5517451509112083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.29160000000000003</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.38739999999999997</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.38739999999999997</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.16263142252294524</v>
-      </c>
-      <c r="I6" s="10">
-        <v>3.3203915431767981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.33280000000000004</v>
-      </c>
-      <c r="F7" s="12">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.33280000000000004</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.19388614374084051</v>
-      </c>
-      <c r="I7" s="10">
-        <v>3.3009063342631704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="C11" s="36">
-        <f>2*B3*B11</f>
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="D11" s="38">
-        <v>8.9442719099991667E-4</v>
-      </c>
-      <c r="G11" s="7">
-        <v>8.9442719099991667E-4</v>
-      </c>
-      <c r="H11" s="35">
-        <v>3.6885555678165859E-3</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.29099014874505025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="C12" s="36">
-        <f t="shared" ref="C12:C15" si="0">2*B4*B12</f>
-        <v>6.8000000000000005E-4</v>
-      </c>
-      <c r="D12" s="38">
-        <v>7.4833147735480681E-4</v>
-      </c>
-      <c r="G12" s="7">
-        <v>7.4833147735480681E-4</v>
-      </c>
-      <c r="H12" s="35">
-        <v>2.2365153253041067E-3</v>
-      </c>
-      <c r="I12" s="8">
-        <v>9.2420268292650168E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="C13" s="36">
-        <f t="shared" si="0"/>
-        <v>8.8000000000000003E-4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.1661903789690383E-3</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1.1661903789690383E-3</v>
-      </c>
-      <c r="H13" s="35">
-        <v>1.9211553912535184E-3</v>
-      </c>
-      <c r="I13" s="10">
-        <v>4.8037868409567946E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="C14" s="37">
-        <f t="shared" si="0"/>
-        <v>1.08E-3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.0198039027185513E-3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1.0198039027185513E-3</v>
-      </c>
-      <c r="H14" s="35">
-        <v>1.2797234521108735E-3</v>
-      </c>
-      <c r="I14" s="10">
-        <v>2.6235192439915431E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="C15" s="37">
-        <f t="shared" si="0"/>
-        <v>1.2800000000000001E-3</v>
-      </c>
-      <c r="D15" s="38">
-        <v>7.4833147735476528E-4</v>
-      </c>
-      <c r="G15" s="7">
-        <v>7.4833147735476528E-4</v>
-      </c>
-      <c r="H15" s="35">
-        <v>1.0525849280175925E-3</v>
-      </c>
-      <c r="I15" s="10">
-        <v>1.8435996442433131E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B9:B10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>